--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Huce\ki 2 nam 2\LTUDKT\doan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18F09FD-E793-46C5-9730-8D4073308F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0047AE2A-D5C7-4F30-9B6E-D2808DE0F96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3DEA3743-3420-4BC4-9A7D-E37177644259}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{3DEA3743-3420-4BC4-9A7D-E37177644259}"/>
   </bookViews>
   <sheets>
     <sheet name="HaNoi" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,12 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B262887E-8AF1-4D8C-B8A4-3DAB0F1E16F8}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96:F115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -473,439 +473,3107 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45773</v>
+        <v>45658</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>12.9</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>12.2</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45714</v>
+        <v>45659</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>25.6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45697</v>
+        <v>45660</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>25.8</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14.3</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>12.2</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45717</v>
+        <v>45661</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>24.6</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45673</v>
+        <v>45662</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>14.3</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>11.4</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45666</v>
+        <v>45663</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>13.9</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>14.3</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45702</v>
+        <v>45664</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>23.9</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>13.8</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="F8">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45773</v>
+        <v>45665</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>23.9</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15.1</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>13.3</v>
       </c>
       <c r="F9">
-        <v>46</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45717</v>
+        <v>45666</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>16.2</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>20.9</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45700</v>
+        <v>45667</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13.4</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E11">
+        <v>20.9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>6</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45681</v>
+        <v>45668</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>18.2</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>12.4</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F12">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45765</v>
+        <v>45669</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>11.7</v>
       </c>
       <c r="F13">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45770</v>
+        <v>45670</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>21.1</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45747</v>
+        <v>45671</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>23.9</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>10.9</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>12.9</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45755</v>
+        <v>45672</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="D16">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>82</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45711</v>
+        <v>45673</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>23.1</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="D17">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>15.6</v>
       </c>
       <c r="F17">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45696</v>
+        <v>45674</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>22.8</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="D18">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45758</v>
+        <v>45675</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>21.8</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="F19">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B20">
+        <v>24.2</v>
+      </c>
+      <c r="C20">
+        <v>14.1</v>
+      </c>
+      <c r="D20">
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>14.5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B21">
+        <v>25.9</v>
+      </c>
+      <c r="C21">
+        <v>13.1</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>13.4</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B22">
+        <v>25.6</v>
+      </c>
+      <c r="C22">
+        <v>13.4</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>17.2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B23">
+        <v>23.2</v>
+      </c>
+      <c r="C23">
+        <v>15.3</v>
+      </c>
+      <c r="D23">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>12.8</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B24">
+        <v>23.9</v>
+      </c>
+      <c r="C24">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>13.9</v>
+      </c>
+      <c r="F24">
+        <v>0.7</v>
+      </c>
+      <c r="G24">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B25">
+        <v>26.8</v>
+      </c>
+      <c r="C25">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D25">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>15.8</v>
+      </c>
+      <c r="F25">
+        <v>1.4</v>
+      </c>
+      <c r="G25">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B26">
+        <v>24.3</v>
+      </c>
+      <c r="C26">
+        <v>19.8</v>
+      </c>
+      <c r="D26">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G26">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B27">
+        <v>20.3</v>
+      </c>
+      <c r="C27">
+        <v>13.5</v>
+      </c>
+      <c r="D27">
+        <v>72</v>
+      </c>
+      <c r="E27">
+        <v>25.3</v>
+      </c>
+      <c r="F27">
+        <v>11.3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B28">
+        <v>17.7</v>
+      </c>
+      <c r="C28">
+        <v>12.5</v>
+      </c>
+      <c r="D28">
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>14.7</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B29">
+        <v>17.7</v>
+      </c>
+      <c r="C29">
+        <v>10.3</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>14.3</v>
+      </c>
+      <c r="F29">
+        <v>0.3</v>
+      </c>
+      <c r="G29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <v>7.9</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B31">
+        <v>23.2</v>
+      </c>
+      <c r="C31">
+        <v>10.5</v>
+      </c>
+      <c r="D31">
+        <v>76</v>
+      </c>
+      <c r="E31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B32">
+        <v>26.2</v>
+      </c>
+      <c r="C32">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D32">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B33">
+        <v>25.3</v>
+      </c>
+      <c r="C33">
+        <v>18.7</v>
+      </c>
+      <c r="D33">
+        <v>87</v>
+      </c>
+      <c r="E33">
+        <v>16.3</v>
+      </c>
+      <c r="F33">
+        <v>3.2</v>
+      </c>
+      <c r="G33">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B34">
+        <v>23.5</v>
+      </c>
+      <c r="C34">
+        <v>18.3</v>
+      </c>
+      <c r="D34">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>15.9</v>
+      </c>
+      <c r="F34">
+        <v>1.8</v>
+      </c>
+      <c r="G34">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B35">
+        <v>17.5</v>
+      </c>
+      <c r="C35">
+        <v>13.8</v>
+      </c>
+      <c r="D35">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F35">
+        <v>5.2</v>
+      </c>
+      <c r="G35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B36">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C36">
+        <v>12.9</v>
+      </c>
+      <c r="D36">
+        <v>59</v>
+      </c>
+      <c r="E36">
+        <v>14.4</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B37">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C37">
+        <v>12.2</v>
+      </c>
+      <c r="D37">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>11.5</v>
+      </c>
+      <c r="F37">
+        <v>0.7</v>
+      </c>
+      <c r="G37">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>15.4</v>
+      </c>
+      <c r="D38">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>15.5</v>
+      </c>
+      <c r="F38">
+        <v>1.6</v>
+      </c>
+      <c r="G38">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B39">
+        <v>15.9</v>
+      </c>
+      <c r="C39">
+        <v>12.6</v>
+      </c>
+      <c r="D39">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F39">
+        <v>6.1</v>
+      </c>
+      <c r="G39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B40">
+        <v>15.7</v>
+      </c>
+      <c r="C40">
+        <v>10.8</v>
+      </c>
+      <c r="D40">
+        <v>68</v>
+      </c>
+      <c r="E40">
+        <v>12.1</v>
+      </c>
+      <c r="F40">
+        <v>0.7</v>
+      </c>
+      <c r="G40">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B41">
+        <v>15.9</v>
+      </c>
+      <c r="C41">
+        <v>11.9</v>
+      </c>
+      <c r="D41">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B42">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D42">
+        <v>78</v>
+      </c>
+      <c r="E42">
+        <v>11.1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B43">
+        <v>23.8</v>
+      </c>
+      <c r="C43">
+        <v>11.8</v>
+      </c>
+      <c r="D43">
+        <v>83</v>
+      </c>
+      <c r="E43">
+        <v>16.3</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B44">
+        <v>22.7</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>8.9</v>
+      </c>
+      <c r="F44">
+        <v>0.8</v>
+      </c>
+      <c r="G44">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B45">
+        <v>22.5</v>
+      </c>
+      <c r="C45">
+        <v>16.2</v>
+      </c>
+      <c r="D45">
+        <v>77</v>
+      </c>
+      <c r="E45">
+        <v>15.3</v>
+      </c>
+      <c r="F45">
+        <v>2.6</v>
+      </c>
+      <c r="G45">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B46">
+        <v>22.4</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>84</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>0.6</v>
+      </c>
+      <c r="G46">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>18.5</v>
+      </c>
+      <c r="D47">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>15.6</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B48">
+        <v>19.8</v>
+      </c>
+      <c r="C48">
+        <v>15.6</v>
+      </c>
+      <c r="D48">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>6.1</v>
+      </c>
+      <c r="G48">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B49">
+        <v>22.1</v>
+      </c>
+      <c r="C49">
+        <v>15.4</v>
+      </c>
+      <c r="D49">
+        <v>84</v>
+      </c>
+      <c r="E49">
+        <v>10.4</v>
+      </c>
+      <c r="F49">
+        <v>0.9</v>
+      </c>
+      <c r="G49">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>15.4</v>
+      </c>
+      <c r="D50">
+        <v>88</v>
+      </c>
+      <c r="E50">
+        <v>11.2</v>
+      </c>
+      <c r="F50">
+        <v>3.1</v>
+      </c>
+      <c r="G50">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>89</v>
+      </c>
+      <c r="E51">
+        <v>8.4</v>
+      </c>
+      <c r="F51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G51">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B52">
+        <v>22.9</v>
+      </c>
+      <c r="C52">
+        <v>17.3</v>
+      </c>
+      <c r="D52">
+        <v>88</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>0.4</v>
+      </c>
+      <c r="G52">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>17.8</v>
+      </c>
+      <c r="D53">
+        <v>87</v>
+      </c>
+      <c r="E53">
+        <v>15.3</v>
+      </c>
+      <c r="F53">
+        <v>0.6</v>
+      </c>
+      <c r="G53">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45710</v>
+      </c>
+      <c r="B54">
+        <v>21.7</v>
+      </c>
+      <c r="C54">
+        <v>17.5</v>
+      </c>
+      <c r="D54">
+        <v>86</v>
+      </c>
+      <c r="E54">
+        <v>9.4</v>
+      </c>
+      <c r="F54">
+        <v>1.6</v>
+      </c>
+      <c r="G54">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B55">
+        <v>18.7</v>
+      </c>
+      <c r="C55">
+        <v>14.7</v>
+      </c>
+      <c r="D55">
+        <v>80</v>
+      </c>
+      <c r="E55">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G55">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B56">
+        <v>15.1</v>
+      </c>
+      <c r="C56">
+        <v>12.3</v>
+      </c>
+      <c r="D56">
+        <v>80</v>
+      </c>
+      <c r="E56">
+        <v>13.5</v>
+      </c>
+      <c r="F56">
+        <v>1.5</v>
+      </c>
+      <c r="G56">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B57">
+        <v>15.8</v>
+      </c>
+      <c r="C57">
+        <v>12.9</v>
+      </c>
+      <c r="D57">
+        <v>91</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G57">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B58">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C58">
+        <v>13.5</v>
+      </c>
+      <c r="D58">
+        <v>86</v>
+      </c>
+      <c r="E58">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F58">
+        <v>1.8</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B59">
+        <v>22.8</v>
+      </c>
+      <c r="C59">
+        <v>15.1</v>
+      </c>
+      <c r="D59">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B60">
+        <v>24.8</v>
+      </c>
+      <c r="C60">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D60">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>15.9</v>
+      </c>
+      <c r="F60">
+        <v>0.4</v>
+      </c>
+      <c r="G60">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B61">
+        <v>27.9</v>
+      </c>
+      <c r="C61">
+        <v>19.7</v>
+      </c>
+      <c r="D61">
+        <v>85</v>
+      </c>
+      <c r="E61">
+        <v>19.8</v>
+      </c>
+      <c r="F61">
+        <v>0.3</v>
+      </c>
+      <c r="G61">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B62">
+        <v>28.4</v>
+      </c>
+      <c r="C62">
+        <v>21.2</v>
+      </c>
+      <c r="D62">
+        <v>87</v>
+      </c>
+      <c r="E62">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.8</v>
+      </c>
+      <c r="G62">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B63">
+        <v>28.3</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>89</v>
+      </c>
+      <c r="E63">
+        <v>14.4</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B64">
+        <v>29.4</v>
+      </c>
+      <c r="C64">
+        <v>22.4</v>
+      </c>
+      <c r="D64">
+        <v>87</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="F64">
+        <v>0.1</v>
+      </c>
+      <c r="G64">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B65">
+        <v>24.7</v>
+      </c>
+      <c r="C65">
+        <v>18.5</v>
+      </c>
+      <c r="D65">
+        <v>89</v>
+      </c>
+      <c r="E65">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F65">
+        <v>5.5</v>
+      </c>
+      <c r="G65">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B66">
+        <v>17.2</v>
+      </c>
+      <c r="C66">
+        <v>13.4</v>
+      </c>
+      <c r="D66">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <v>20.3</v>
+      </c>
+      <c r="F66">
+        <v>2.7</v>
+      </c>
+      <c r="G66">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B67">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C67">
+        <v>13.1</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>13.2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B68">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C68">
+        <v>14.4</v>
+      </c>
+      <c r="D68">
+        <v>76</v>
+      </c>
+      <c r="E68">
+        <v>8.9</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>15.5</v>
+      </c>
+      <c r="D69">
+        <v>84</v>
+      </c>
+      <c r="E69">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F69">
+        <v>0.1</v>
+      </c>
+      <c r="G69">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B70">
+        <v>23.4</v>
+      </c>
+      <c r="C70">
+        <v>17.5</v>
+      </c>
+      <c r="D70">
+        <v>87</v>
+      </c>
+      <c r="E70">
+        <v>11.2</v>
+      </c>
+      <c r="F70">
+        <v>0.9</v>
+      </c>
+      <c r="G70">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B71">
+        <v>25.8</v>
+      </c>
+      <c r="C71">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D71">
+        <v>89</v>
+      </c>
+      <c r="E71">
+        <v>15.5</v>
+      </c>
+      <c r="F71">
+        <v>0.4</v>
+      </c>
+      <c r="G71">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B72">
+        <v>26.5</v>
+      </c>
+      <c r="C72">
+        <v>20.9</v>
+      </c>
+      <c r="D72">
+        <v>88</v>
+      </c>
+      <c r="E72">
+        <v>15.5</v>
+      </c>
+      <c r="F72">
+        <v>1.4</v>
+      </c>
+      <c r="G72">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B73">
+        <v>25.7</v>
+      </c>
+      <c r="C73">
+        <v>21.7</v>
+      </c>
+      <c r="D73">
+        <v>91</v>
+      </c>
+      <c r="E73">
+        <v>17.5</v>
+      </c>
+      <c r="F73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G73">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B74">
+        <v>28.1</v>
+      </c>
+      <c r="C74">
+        <v>22.5</v>
+      </c>
+      <c r="D74">
+        <v>90</v>
+      </c>
+      <c r="E74">
+        <v>15.5</v>
+      </c>
+      <c r="F74">
+        <v>0.6</v>
+      </c>
+      <c r="G74">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B75">
+        <v>26.5</v>
+      </c>
+      <c r="C75">
+        <v>20.7</v>
+      </c>
+      <c r="D75">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>19.5</v>
+      </c>
+      <c r="F75">
+        <v>1.6</v>
+      </c>
+      <c r="G75">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B76">
+        <v>20.8</v>
+      </c>
+      <c r="C76">
+        <v>15.6</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+      <c r="E76">
+        <v>17.8</v>
+      </c>
+      <c r="F76">
+        <v>0.9</v>
+      </c>
+      <c r="G76">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B77">
+        <v>20.5</v>
+      </c>
+      <c r="C77">
+        <v>15.3</v>
+      </c>
+      <c r="D77">
+        <v>66</v>
+      </c>
+      <c r="E77">
+        <v>11.4</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B78">
+        <v>20.2</v>
+      </c>
+      <c r="C78">
+        <v>15.4</v>
+      </c>
+      <c r="D78">
+        <v>64</v>
+      </c>
+      <c r="E78">
+        <v>14.8</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B79">
+        <v>22.4</v>
+      </c>
+      <c r="C79">
+        <v>13.5</v>
+      </c>
+      <c r="D79">
+        <v>61</v>
+      </c>
+      <c r="E79">
+        <v>13.7</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>13.2</v>
+      </c>
+      <c r="D80">
+        <v>67</v>
+      </c>
+      <c r="E80">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B81">
+        <v>25.4</v>
+      </c>
+      <c r="C81">
+        <v>13.8</v>
+      </c>
+      <c r="D81">
+        <v>63</v>
+      </c>
+      <c r="E81">
+        <v>12.3</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B82">
+        <v>26.4</v>
+      </c>
+      <c r="C82">
+        <v>14.9</v>
+      </c>
+      <c r="D82">
+        <v>65</v>
+      </c>
+      <c r="E82">
+        <v>14.6</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B83">
+        <v>27.6</v>
+      </c>
+      <c r="C83">
+        <v>16.5</v>
+      </c>
+      <c r="D83">
+        <v>74</v>
+      </c>
+      <c r="E83">
+        <v>14.6</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B84">
+        <v>29.6</v>
+      </c>
+      <c r="C84">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D84">
+        <v>73</v>
+      </c>
+      <c r="E84">
+        <v>16.5</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B85">
+        <v>31.3</v>
+      </c>
+      <c r="C85">
+        <v>19.5</v>
+      </c>
+      <c r="D85">
+        <v>74</v>
+      </c>
+      <c r="E85">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B86">
+        <v>31.2</v>
+      </c>
+      <c r="C86">
+        <v>20.2</v>
+      </c>
+      <c r="D86">
+        <v>78</v>
+      </c>
+      <c r="E86">
+        <v>19.3</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B87">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C87">
+        <v>21.3</v>
+      </c>
+      <c r="D87">
+        <v>79</v>
+      </c>
+      <c r="E87">
+        <v>17.5</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B88">
+        <v>31.9</v>
+      </c>
+      <c r="C88">
+        <v>21.9</v>
+      </c>
+      <c r="D88">
+        <v>81</v>
+      </c>
+      <c r="E88">
+        <v>15.5</v>
+      </c>
+      <c r="F88">
+        <v>0.2</v>
+      </c>
+      <c r="G88">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B89">
+        <v>25.1</v>
+      </c>
+      <c r="C89">
+        <v>14.5</v>
+      </c>
+      <c r="D89">
+        <v>79</v>
+      </c>
+      <c r="E89">
+        <v>21.9</v>
+      </c>
+      <c r="F89">
+        <v>14</v>
+      </c>
+      <c r="G89">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B90">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C90">
+        <v>12.8</v>
+      </c>
+      <c r="D90">
+        <v>71</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>0.7</v>
+      </c>
+      <c r="G90">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B91">
+        <v>18.5</v>
+      </c>
+      <c r="C91">
+        <v>13.4</v>
+      </c>
+      <c r="D91">
+        <v>64</v>
+      </c>
+      <c r="E91">
+        <v>10.1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B92">
+        <v>22.3</v>
+      </c>
+      <c r="C92">
+        <v>14.5</v>
+      </c>
+      <c r="D92">
+        <v>64</v>
+      </c>
+      <c r="E92">
+        <v>7.7</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B93">
+        <v>25.3</v>
+      </c>
+      <c r="C93">
+        <v>14.5</v>
+      </c>
+      <c r="D93">
+        <v>71</v>
+      </c>
+      <c r="E93">
+        <v>9.6</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B94">
+        <v>27.8</v>
+      </c>
+      <c r="C94">
+        <v>15.2</v>
+      </c>
+      <c r="D94">
+        <v>66</v>
+      </c>
+      <c r="E94">
+        <v>16.2</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B95">
+        <v>26.6</v>
+      </c>
+      <c r="C95">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>77</v>
+      </c>
+      <c r="E95">
+        <v>19.3</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B96">
+        <v>24.8</v>
+      </c>
+      <c r="C96">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D96">
+        <v>80</v>
+      </c>
+      <c r="E96">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F96">
+        <v>1.7</v>
+      </c>
+      <c r="G96">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45753</v>
+      </c>
+      <c r="B97">
+        <v>27.1</v>
+      </c>
+      <c r="C97">
+        <v>20.7</v>
+      </c>
+      <c r="D97">
+        <v>80</v>
+      </c>
+      <c r="E97">
+        <v>12.2</v>
+      </c>
+      <c r="F97">
+        <v>1.5</v>
+      </c>
+      <c r="G97">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B98">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>20.2</v>
+      </c>
+      <c r="D98">
+        <v>84</v>
+      </c>
+      <c r="E98">
+        <v>12.1</v>
+      </c>
+      <c r="F98">
+        <v>0.8</v>
+      </c>
+      <c r="G98">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B99">
+        <v>28.3</v>
+      </c>
+      <c r="C99">
+        <v>19.8</v>
+      </c>
+      <c r="D99">
+        <v>85</v>
+      </c>
+      <c r="E99">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F99">
+        <v>0.3</v>
+      </c>
+      <c r="G99">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B100">
+        <v>29.6</v>
+      </c>
+      <c r="C100">
+        <v>22.4</v>
+      </c>
+      <c r="D100">
+        <v>83</v>
+      </c>
+      <c r="E100">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F100">
+        <v>0.3</v>
+      </c>
+      <c r="G100">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B101">
+        <v>30.6</v>
+      </c>
+      <c r="C101">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>83</v>
+      </c>
+      <c r="E101">
+        <v>17</v>
+      </c>
+      <c r="F101">
+        <v>0.3</v>
+      </c>
+      <c r="G101">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B102">
+        <v>32.5</v>
+      </c>
+      <c r="C102">
+        <v>22.7</v>
+      </c>
+      <c r="D102">
+        <v>80</v>
+      </c>
+      <c r="E102">
+        <v>15.9</v>
+      </c>
+      <c r="F102">
+        <v>0.4</v>
+      </c>
+      <c r="G102">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B103">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C103">
+        <v>21.6</v>
+      </c>
+      <c r="D103">
+        <v>73</v>
+      </c>
+      <c r="E103">
+        <v>25.6</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45760</v>
+      </c>
+      <c r="B104">
+        <v>26.6</v>
+      </c>
+      <c r="C104">
+        <v>19.2</v>
+      </c>
+      <c r="D104">
+        <v>63</v>
+      </c>
+      <c r="E104">
+        <v>13.5</v>
+      </c>
+      <c r="F104">
+        <v>1.7</v>
+      </c>
+      <c r="G104">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B105">
+        <v>25.6</v>
+      </c>
+      <c r="C105">
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>69</v>
+      </c>
+      <c r="E105">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F105">
+        <v>2.7</v>
+      </c>
+      <c r="G105">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B106">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C106">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D106">
+        <v>63</v>
+      </c>
+      <c r="E106">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B107">
+        <v>31.2</v>
+      </c>
+      <c r="C107">
+        <v>19.2</v>
+      </c>
+      <c r="D107">
+        <v>64</v>
+      </c>
+      <c r="E107">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B108">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C108">
+        <v>22.1</v>
+      </c>
+      <c r="D108">
+        <v>77</v>
+      </c>
+      <c r="E108">
+        <v>16.7</v>
+      </c>
+      <c r="F108">
+        <v>0.1</v>
+      </c>
+      <c r="G108">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>45765</v>
       </c>
-      <c r="B20">
+      <c r="B109">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C109">
+        <v>23.1</v>
+      </c>
+      <c r="D109">
+        <v>75</v>
+      </c>
+      <c r="E109">
+        <v>16.5</v>
+      </c>
+      <c r="F109">
+        <v>0.2</v>
+      </c>
+      <c r="G109">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B110">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C110">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>67</v>
+      </c>
+      <c r="E110">
+        <v>17.3</v>
+      </c>
+      <c r="F110">
+        <v>0.1</v>
+      </c>
+      <c r="G110">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45767</v>
+      </c>
+      <c r="B111">
+        <v>35.6</v>
+      </c>
+      <c r="C111">
+        <v>25.5</v>
+      </c>
+      <c r="D111">
+        <v>72</v>
+      </c>
+      <c r="E111">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F111">
+        <v>0.1</v>
+      </c>
+      <c r="G111">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B112">
+        <v>35.5</v>
+      </c>
+      <c r="C112">
+        <v>25.4</v>
+      </c>
+      <c r="D112">
+        <v>73</v>
+      </c>
+      <c r="E112">
+        <v>19.5</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B113">
+        <v>36.6</v>
+      </c>
+      <c r="C113">
+        <v>25.4</v>
+      </c>
+      <c r="D113">
+        <v>75</v>
+      </c>
+      <c r="E113">
+        <v>19.3</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B114">
+        <v>37</v>
+      </c>
+      <c r="C114">
+        <v>25.5</v>
+      </c>
+      <c r="D114">
+        <v>80</v>
+      </c>
+      <c r="E114">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F114">
+        <v>35.6</v>
+      </c>
+      <c r="G114">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B115">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C115">
+        <v>24.6</v>
+      </c>
+      <c r="D115">
+        <v>82</v>
+      </c>
+      <c r="E115">
+        <v>14.1</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+      <c r="G115">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116">
+        <v>22.9</v>
+      </c>
+      <c r="D116">
+        <v>81</v>
+      </c>
+      <c r="E116">
+        <v>13.8</v>
+      </c>
+      <c r="F116">
+        <v>29.3</v>
+      </c>
+      <c r="G116">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B117">
+        <v>29.4</v>
+      </c>
+      <c r="C117">
+        <v>23.8</v>
+      </c>
+      <c r="D117">
+        <v>86</v>
+      </c>
+      <c r="E117">
+        <v>14.6</v>
+      </c>
+      <c r="F117">
+        <v>0.1</v>
+      </c>
+      <c r="G117">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B118">
+        <v>31.5</v>
+      </c>
+      <c r="C118">
+        <v>25.3</v>
+      </c>
+      <c r="D118">
+        <v>86</v>
+      </c>
+      <c r="E118">
+        <v>13.9</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B119">
+        <v>28.4</v>
+      </c>
+      <c r="C119">
+        <v>23.2</v>
+      </c>
+      <c r="D119">
+        <v>89</v>
+      </c>
+      <c r="E119">
+        <v>15.3</v>
+      </c>
+      <c r="F119">
+        <v>25.2</v>
+      </c>
+      <c r="G119">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B120">
+        <v>29.3</v>
+      </c>
+      <c r="C120">
+        <v>23.1</v>
+      </c>
+      <c r="D120">
+        <v>88</v>
+      </c>
+      <c r="E120">
+        <v>12.9</v>
+      </c>
+      <c r="F120">
+        <v>2.1</v>
+      </c>
+      <c r="G120">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B121">
+        <v>30.2</v>
+      </c>
+      <c r="C121">
+        <v>24</v>
+      </c>
+      <c r="D121">
+        <v>87</v>
+      </c>
+      <c r="E121">
+        <v>11.2</v>
+      </c>
+      <c r="F121">
+        <v>28.4</v>
+      </c>
+      <c r="G121">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B122">
         <v>28</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>87</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>48</v>
-      </c>
-      <c r="G20">
-        <v>12</v>
+      <c r="C122">
+        <v>23.6</v>
+      </c>
+      <c r="D122">
+        <v>85</v>
+      </c>
+      <c r="E122">
+        <v>10.5</v>
+      </c>
+      <c r="F122">
+        <v>25.4</v>
+      </c>
+      <c r="G122">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B123">
+        <v>31.3</v>
+      </c>
+      <c r="C123">
+        <v>22.7</v>
+      </c>
+      <c r="D123">
+        <v>80</v>
+      </c>
+      <c r="E123">
+        <v>13.2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45780</v>
+      </c>
+      <c r="B124">
+        <v>31.6</v>
+      </c>
+      <c r="C124">
+        <v>24.8</v>
+      </c>
+      <c r="D124">
+        <v>82</v>
+      </c>
+      <c r="E124">
+        <v>14.3</v>
+      </c>
+      <c r="F124">
+        <v>0.1</v>
+      </c>
+      <c r="G124">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B125">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C125">
+        <v>25.5</v>
+      </c>
+      <c r="D125">
+        <v>82</v>
+      </c>
+      <c r="E125">
+        <v>20.8</v>
+      </c>
+      <c r="F125">
+        <v>0.2</v>
+      </c>
+      <c r="G125">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B126">
+        <v>34.9</v>
+      </c>
+      <c r="C126">
+        <v>25.7</v>
+      </c>
+      <c r="D126">
+        <v>80</v>
+      </c>
+      <c r="E126">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B127">
+        <v>33.1</v>
+      </c>
+      <c r="C127">
+        <v>26.4</v>
+      </c>
+      <c r="D127">
+        <v>82</v>
+      </c>
+      <c r="E127">
+        <v>14.9</v>
+      </c>
+      <c r="F127">
+        <v>0.4</v>
+      </c>
+      <c r="G127">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B128">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C128">
+        <v>25.8</v>
+      </c>
+      <c r="D128">
+        <v>82</v>
+      </c>
+      <c r="E128">
+        <v>15.5</v>
+      </c>
+      <c r="F128">
+        <v>0.5</v>
+      </c>
+      <c r="G128">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B129">
+        <v>35.6</v>
+      </c>
+      <c r="C129">
+        <v>27.1</v>
+      </c>
+      <c r="D129">
+        <v>78</v>
+      </c>
+      <c r="E129">
+        <v>18.2</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B130">
+        <v>32.4</v>
+      </c>
+      <c r="C130">
+        <v>26.4</v>
+      </c>
+      <c r="D130">
+        <v>81</v>
+      </c>
+      <c r="E130">
+        <v>21.3</v>
+      </c>
+      <c r="F130">
+        <v>5.2</v>
+      </c>
+      <c r="G130">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B131">
+        <v>31.4</v>
+      </c>
+      <c r="C131">
+        <v>23.5</v>
+      </c>
+      <c r="D131">
+        <v>85</v>
+      </c>
+      <c r="E131">
+        <v>23.9</v>
+      </c>
+      <c r="F131">
+        <v>26.8</v>
+      </c>
+      <c r="G131">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B132">
+        <v>26.6</v>
+      </c>
+      <c r="C132">
+        <v>20.9</v>
+      </c>
+      <c r="D132">
+        <v>76</v>
+      </c>
+      <c r="E132">
+        <v>18.5</v>
+      </c>
+      <c r="F132">
+        <v>10.9</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B133">
+        <v>28.2</v>
+      </c>
+      <c r="C133">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D133">
+        <v>72</v>
+      </c>
+      <c r="E133">
+        <v>12.4</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B134">
+        <v>29.9</v>
+      </c>
+      <c r="C134">
+        <v>21.2</v>
+      </c>
+      <c r="D134">
+        <v>78</v>
+      </c>
+      <c r="E134">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B135">
+        <v>29.4</v>
+      </c>
+      <c r="C135">
+        <v>23.7</v>
+      </c>
+      <c r="D135">
+        <v>85</v>
+      </c>
+      <c r="E135">
+        <v>13.9</v>
+      </c>
+      <c r="F135">
+        <v>5.9</v>
+      </c>
+      <c r="G135">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B136">
+        <v>29.8</v>
+      </c>
+      <c r="C136">
+        <v>24.7</v>
+      </c>
+      <c r="D136">
+        <v>91</v>
+      </c>
+      <c r="E136">
+        <v>13.3</v>
+      </c>
+      <c r="F136">
+        <v>15.9</v>
+      </c>
+      <c r="G136">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -915,14 +3583,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0409D172-F6C9-4DA0-AC34-F4BF6FFD4F6F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -956,321 +3625,321 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45739</v>
+        <v>45658</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>23.4</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>18.8</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45742</v>
+        <v>45659</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>22.4</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>19.7</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45721</v>
+        <v>45660</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>22.3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45668</v>
+        <v>45661</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45759</v>
+        <v>45662</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>24.6</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="F6">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45691</v>
+        <v>45663</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>23.3</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>15.5</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45718</v>
+        <v>45664</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="D8">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45682</v>
+        <v>45665</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>24.8</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45661</v>
+        <v>45666</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>20.7</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>11.3</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45695</v>
+        <v>45667</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>21.7</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>18.3</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>10.8</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45757</v>
+        <v>45668</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>21.1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45670</v>
+        <v>45669</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>20.9</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13.7</v>
       </c>
       <c r="D13">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>10.8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="D14">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45716</v>
+        <v>45671</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>22.7</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1278,117 +3947,2785 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45778</v>
+        <v>45672</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F16">
-        <v>53</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45711</v>
+        <v>45673</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>21.3</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45686</v>
+        <v>45674</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>21.5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45751</v>
+        <v>45675</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>22.7</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>15.8</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B20">
+        <v>23.8</v>
+      </c>
+      <c r="C20">
+        <v>16.5</v>
+      </c>
+      <c r="D20">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B21">
+        <v>23.7</v>
+      </c>
+      <c r="C21">
+        <v>16.7</v>
+      </c>
+      <c r="D21">
+        <v>82</v>
+      </c>
+      <c r="E21">
+        <v>9.1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B22">
+        <v>22.6</v>
+      </c>
+      <c r="C22">
+        <v>13.5</v>
+      </c>
+      <c r="D22">
+        <v>84</v>
+      </c>
+      <c r="E22">
+        <v>8.4</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B23">
+        <v>23.9</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>87</v>
+      </c>
+      <c r="E23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B24">
+        <v>26.1</v>
+      </c>
+      <c r="C24">
+        <v>14.7</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>9.9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B25">
+        <v>27.2</v>
+      </c>
+      <c r="C25">
+        <v>15.8</v>
+      </c>
+      <c r="D25">
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>12.1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B26">
+        <v>25.6</v>
+      </c>
+      <c r="C26">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D26">
+        <v>86</v>
+      </c>
+      <c r="E26">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D27">
+        <v>76</v>
+      </c>
+      <c r="E27">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.4</v>
+      </c>
+      <c r="G27">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B28">
+        <v>19.7</v>
+      </c>
+      <c r="C28">
+        <v>17.5</v>
+      </c>
+      <c r="D28">
+        <v>78</v>
+      </c>
+      <c r="E28">
+        <v>11.9</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B29">
+        <v>20.9</v>
+      </c>
+      <c r="C29">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29">
+        <v>7.4</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B30">
+        <v>21.5</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>7.7</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B31">
+        <v>24.1</v>
+      </c>
+      <c r="C31">
+        <v>13.8</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B32">
+        <v>26.7</v>
+      </c>
+      <c r="C32">
+        <v>12.6</v>
+      </c>
+      <c r="D32">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>11.8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B33">
+        <v>27.8</v>
+      </c>
+      <c r="C33">
+        <v>13.2</v>
+      </c>
+      <c r="D33">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B34">
+        <v>26.7</v>
+      </c>
+      <c r="C34">
+        <v>16.3</v>
+      </c>
+      <c r="D34">
+        <v>86</v>
+      </c>
+      <c r="E34">
+        <v>10.5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B35">
+        <v>25.1</v>
+      </c>
+      <c r="C35">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D35">
+        <v>86</v>
+      </c>
+      <c r="E35">
+        <v>10.7</v>
+      </c>
+      <c r="F35">
+        <v>5.7</v>
+      </c>
+      <c r="G35">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B36">
+        <v>20.2</v>
+      </c>
+      <c r="C36">
+        <v>18.8</v>
+      </c>
+      <c r="D36">
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>5.4</v>
+      </c>
+      <c r="F36">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B37">
+        <v>23.3</v>
+      </c>
+      <c r="C37">
+        <v>18.3</v>
+      </c>
+      <c r="D37">
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B38">
+        <v>24.9</v>
+      </c>
+      <c r="C38">
+        <v>16.3</v>
+      </c>
+      <c r="D38">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>10.9</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B39">
+        <v>23.9</v>
+      </c>
+      <c r="C39">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D39">
+        <v>86</v>
+      </c>
+      <c r="E39">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B40">
+        <v>20.9</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>11.1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B41">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C41">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D41">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>10.5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B42">
+        <v>21.7</v>
+      </c>
+      <c r="C42">
+        <v>17.5</v>
+      </c>
+      <c r="D42">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B43">
+        <v>22.2</v>
+      </c>
+      <c r="C43">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D43">
+        <v>92</v>
+      </c>
+      <c r="E43">
+        <v>4.3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B44">
+        <v>23.8</v>
+      </c>
+      <c r="C44">
+        <v>20.2</v>
+      </c>
+      <c r="D44">
+        <v>92</v>
+      </c>
+      <c r="E44">
+        <v>6.4</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B45">
+        <v>23.6</v>
+      </c>
+      <c r="C45">
+        <v>20.3</v>
+      </c>
+      <c r="D45">
+        <v>90</v>
+      </c>
+      <c r="E45">
+        <v>5.8</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>45702</v>
       </c>
-      <c r="B20">
+      <c r="B46">
+        <v>24.4</v>
+      </c>
+      <c r="C46">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D46">
+        <v>92</v>
+      </c>
+      <c r="E46">
+        <v>8.1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B47">
+        <v>28.1</v>
+      </c>
+      <c r="C47">
+        <v>20.5</v>
+      </c>
+      <c r="D47">
+        <v>89</v>
+      </c>
+      <c r="E47">
+        <v>11.3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B48">
+        <v>25.8</v>
+      </c>
+      <c r="C48">
+        <v>21.4</v>
+      </c>
+      <c r="D48">
+        <v>89</v>
+      </c>
+      <c r="E48">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B49">
+        <v>25.5</v>
+      </c>
+      <c r="C49">
+        <v>19.2</v>
+      </c>
+      <c r="D49">
+        <v>85</v>
+      </c>
+      <c r="E49">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>99</v>
-      </c>
-      <c r="E20">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D50">
+        <v>86</v>
+      </c>
+      <c r="E50">
+        <v>13.3</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B51">
+        <v>23.9</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>12.3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B52">
+        <v>24.9</v>
+      </c>
+      <c r="C52">
+        <v>21.3</v>
+      </c>
+      <c r="D52">
+        <v>86</v>
+      </c>
+      <c r="E52">
+        <v>11.4</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B53">
+        <v>24.4</v>
+      </c>
+      <c r="C53">
+        <v>21.7</v>
+      </c>
+      <c r="D53">
+        <v>89</v>
+      </c>
+      <c r="E53">
         <v>9</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45710</v>
+      </c>
+      <c r="B54">
+        <v>24.1</v>
+      </c>
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>90</v>
+      </c>
+      <c r="E54">
+        <v>6.8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B55">
+        <v>23.9</v>
+      </c>
+      <c r="C55">
+        <v>21.4</v>
+      </c>
+      <c r="D55">
+        <v>89</v>
+      </c>
+      <c r="E55">
+        <v>12.2</v>
+      </c>
+      <c r="F55">
+        <v>3.5</v>
+      </c>
+      <c r="G55">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B56">
+        <v>21.9</v>
+      </c>
+      <c r="C56">
+        <v>21.1</v>
+      </c>
+      <c r="D56">
+        <v>89</v>
+      </c>
+      <c r="E56">
+        <v>10.5</v>
+      </c>
+      <c r="F56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B57">
+        <v>22.3</v>
+      </c>
+      <c r="C57">
+        <v>20.2</v>
+      </c>
+      <c r="D57">
+        <v>89</v>
+      </c>
+      <c r="E57">
+        <v>6.6</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B58">
+        <v>24.1</v>
+      </c>
+      <c r="C58">
+        <v>20.3</v>
+      </c>
+      <c r="D58">
+        <v>88</v>
+      </c>
+      <c r="E58">
+        <v>7.2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B59">
+        <v>25.3</v>
+      </c>
+      <c r="C59">
+        <v>18.5</v>
+      </c>
+      <c r="D59">
+        <v>89</v>
+      </c>
+      <c r="E59">
+        <v>9.9</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D60">
+        <v>87</v>
+      </c>
+      <c r="E60">
+        <v>11.6</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D61">
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <v>12.2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B62">
+        <v>30.6</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>84</v>
+      </c>
+      <c r="E62">
+        <v>11.3</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B63">
+        <v>31.3</v>
+      </c>
+      <c r="C63">
+        <v>20.8</v>
+      </c>
+      <c r="D63">
+        <v>83</v>
+      </c>
+      <c r="E63">
+        <v>10.1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B64">
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <v>23.4</v>
+      </c>
+      <c r="D64">
+        <v>86</v>
+      </c>
+      <c r="E64">
+        <v>9.1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>11.2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>20.9</v>
+      </c>
+      <c r="D66">
+        <v>84</v>
+      </c>
+      <c r="E66">
+        <v>16.3</v>
+      </c>
+      <c r="F66">
+        <v>2.4</v>
+      </c>
+      <c r="G66">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B67">
+        <v>21.2</v>
+      </c>
+      <c r="C67">
+        <v>20.3</v>
+      </c>
+      <c r="D67">
+        <v>83</v>
+      </c>
+      <c r="E67">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B68">
+        <v>23.2</v>
+      </c>
+      <c r="C68">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D68">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>7.4</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B69">
+        <v>24.7</v>
+      </c>
+      <c r="C69">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D69">
+        <v>87</v>
+      </c>
+      <c r="E69">
+        <v>11.5</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>21.1</v>
+      </c>
+      <c r="D70">
+        <v>93</v>
+      </c>
+      <c r="E70">
+        <v>7.2</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B71">
+        <v>26.1</v>
+      </c>
+      <c r="C71">
+        <v>22.3</v>
+      </c>
+      <c r="D71">
+        <v>92</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B72">
+        <v>29.4</v>
+      </c>
+      <c r="C72">
+        <v>22.6</v>
+      </c>
+      <c r="D72">
+        <v>88</v>
+      </c>
+      <c r="E72">
+        <v>13.4</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B73">
+        <v>31.2</v>
+      </c>
+      <c r="C73">
+        <v>23.2</v>
+      </c>
+      <c r="D73">
+        <v>86</v>
+      </c>
+      <c r="E73">
+        <v>14.6</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B74">
+        <v>31.1</v>
+      </c>
+      <c r="C74">
+        <v>21.4</v>
+      </c>
+      <c r="D74">
+        <v>84</v>
+      </c>
+      <c r="E74">
+        <v>13.4</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B75">
+        <v>32</v>
+      </c>
+      <c r="C75">
+        <v>22.6</v>
+      </c>
+      <c r="D75">
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>11.2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B76">
+        <v>26.3</v>
+      </c>
+      <c r="C76">
+        <v>21.1</v>
+      </c>
+      <c r="D76">
+        <v>82</v>
+      </c>
+      <c r="E76">
+        <v>19</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
+      </c>
+      <c r="G76">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B77">
+        <v>22.6</v>
+      </c>
+      <c r="C77">
+        <v>20.3</v>
+      </c>
+      <c r="D77">
+        <v>86</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>0.2</v>
+      </c>
+      <c r="G77">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B78">
+        <v>22.3</v>
+      </c>
+      <c r="C78">
+        <v>20.2</v>
+      </c>
+      <c r="D78">
+        <v>79</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>11.2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B80">
+        <v>22.6</v>
+      </c>
+      <c r="C80">
+        <v>15.4</v>
+      </c>
+      <c r="D80">
+        <v>83</v>
+      </c>
+      <c r="E80">
+        <v>8.9</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B81">
+        <v>24.6</v>
+      </c>
+      <c r="C81">
+        <v>15.8</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>11.2</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B82">
+        <v>26.1</v>
+      </c>
+      <c r="C82">
+        <v>16.8</v>
+      </c>
+      <c r="D82">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <v>13.7</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>15.3</v>
+      </c>
+      <c r="D83">
+        <v>84</v>
+      </c>
+      <c r="E83">
+        <v>12.5</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B84">
+        <v>27.1</v>
+      </c>
+      <c r="C84">
+        <v>16.7</v>
+      </c>
+      <c r="D84">
+        <v>84</v>
+      </c>
+      <c r="E84">
+        <v>13.2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B85">
+        <v>29.6</v>
+      </c>
+      <c r="C85">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D85">
+        <v>80</v>
+      </c>
+      <c r="E85">
+        <v>11.2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B86">
+        <v>29.8</v>
+      </c>
+      <c r="C86">
+        <v>18.7</v>
+      </c>
+      <c r="D86">
+        <v>82</v>
+      </c>
+      <c r="E86">
+        <v>10.8</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B87">
+        <v>33.4</v>
+      </c>
+      <c r="C87">
+        <v>23.3</v>
+      </c>
+      <c r="D87">
+        <v>80</v>
+      </c>
+      <c r="E87">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B88">
+        <v>32.6</v>
+      </c>
+      <c r="C88">
+        <v>23.2</v>
+      </c>
+      <c r="D88">
+        <v>85</v>
+      </c>
+      <c r="E88">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B89">
+        <v>29.6</v>
+      </c>
+      <c r="C89">
+        <v>23.6</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <v>14.4</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B90">
+        <v>25.3</v>
+      </c>
+      <c r="C90">
+        <v>21.2</v>
+      </c>
+      <c r="D90">
+        <v>79</v>
+      </c>
+      <c r="E90">
+        <v>14.1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B91">
+        <v>25.1</v>
+      </c>
+      <c r="C91">
+        <v>21.3</v>
+      </c>
+      <c r="D91">
+        <v>78</v>
+      </c>
+      <c r="E91">
+        <v>10.1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B92">
+        <v>24.1</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>75</v>
+      </c>
+      <c r="E92">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B93">
+        <v>22.4</v>
+      </c>
+      <c r="C93">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D93">
+        <v>78</v>
+      </c>
+      <c r="E93">
+        <v>8.9</v>
+      </c>
+      <c r="F93">
+        <v>1.7</v>
+      </c>
+      <c r="G93">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B94">
+        <v>24.2</v>
+      </c>
+      <c r="C94">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D94">
+        <v>87</v>
+      </c>
+      <c r="E94">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F94">
+        <v>1.5</v>
+      </c>
+      <c r="G94">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B95">
+        <v>27.8</v>
+      </c>
+      <c r="C95">
+        <v>18.8</v>
+      </c>
+      <c r="D95">
+        <v>82</v>
+      </c>
+      <c r="E95">
+        <v>12.4</v>
+      </c>
+      <c r="F95">
+        <v>0.8</v>
+      </c>
+      <c r="G95">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B96">
+        <v>28.8</v>
+      </c>
+      <c r="C96">
+        <v>20.6</v>
+      </c>
+      <c r="D96">
+        <v>85</v>
+      </c>
+      <c r="E96">
+        <v>13.2</v>
+      </c>
+      <c r="F96">
+        <v>0.3</v>
+      </c>
+      <c r="G96">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45753</v>
+      </c>
+      <c r="B97">
+        <v>27.3</v>
+      </c>
+      <c r="C97">
+        <v>20.7</v>
+      </c>
+      <c r="D97">
+        <v>88</v>
+      </c>
+      <c r="E97">
+        <v>10.7</v>
+      </c>
+      <c r="F97">
+        <v>0.3</v>
+      </c>
+      <c r="G97">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B98">
+        <v>29.9</v>
+      </c>
+      <c r="C98">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>83</v>
+      </c>
+      <c r="E98">
+        <v>11.6</v>
+      </c>
+      <c r="F98">
+        <v>0.3</v>
+      </c>
+      <c r="G98">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B99">
+        <v>30.3</v>
+      </c>
+      <c r="C99">
+        <v>21.7</v>
+      </c>
+      <c r="D99">
+        <v>83</v>
+      </c>
+      <c r="E99">
+        <v>14.8</v>
+      </c>
+      <c r="F99">
+        <v>0.4</v>
+      </c>
+      <c r="G99">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B100">
+        <v>30.3</v>
+      </c>
+      <c r="C100">
+        <v>23.5</v>
+      </c>
+      <c r="D100">
+        <v>83</v>
+      </c>
+      <c r="E100">
+        <v>14.5</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B101">
+        <v>31.8</v>
+      </c>
+      <c r="C101">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>82</v>
+      </c>
+      <c r="E101">
+        <v>7.6</v>
+      </c>
+      <c r="F101">
+        <v>1.7</v>
+      </c>
+      <c r="G101">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B102">
+        <v>33.9</v>
+      </c>
+      <c r="C102">
+        <v>23.6</v>
+      </c>
+      <c r="D102">
+        <v>77</v>
+      </c>
+      <c r="E102">
+        <v>11.9</v>
+      </c>
+      <c r="F102">
+        <v>2.7</v>
+      </c>
+      <c r="G102">
         <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B103">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C103">
+        <v>24.9</v>
+      </c>
+      <c r="D103">
+        <v>71</v>
+      </c>
+      <c r="E103">
+        <v>19.3</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45760</v>
+      </c>
+      <c r="B104">
+        <v>24.5</v>
+      </c>
+      <c r="C104">
+        <v>20.5</v>
+      </c>
+      <c r="D104">
+        <v>73</v>
+      </c>
+      <c r="E104">
+        <v>18.7</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B105">
+        <v>27.4</v>
+      </c>
+      <c r="C105">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D105">
+        <v>76</v>
+      </c>
+      <c r="E105">
+        <v>11.8</v>
+      </c>
+      <c r="F105">
+        <v>0.1</v>
+      </c>
+      <c r="G105">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B106">
+        <v>28.5</v>
+      </c>
+      <c r="C106">
+        <v>18.7</v>
+      </c>
+      <c r="D106">
+        <v>70</v>
+      </c>
+      <c r="E106">
+        <v>12.9</v>
+      </c>
+      <c r="F106">
+        <v>0.2</v>
+      </c>
+      <c r="G106">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B107">
+        <v>31.5</v>
+      </c>
+      <c r="C107">
+        <v>21.4</v>
+      </c>
+      <c r="D107">
+        <v>78</v>
+      </c>
+      <c r="E107">
+        <v>14.1</v>
+      </c>
+      <c r="F107">
+        <v>0.1</v>
+      </c>
+      <c r="G107">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B108">
+        <v>33.9</v>
+      </c>
+      <c r="C108">
+        <v>24.7</v>
+      </c>
+      <c r="D108">
+        <v>79</v>
+      </c>
+      <c r="E108">
+        <v>12.1</v>
+      </c>
+      <c r="F108">
+        <v>0.1</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B109">
+        <v>36.1</v>
+      </c>
+      <c r="C109">
+        <v>24.9</v>
+      </c>
+      <c r="D109">
+        <v>79</v>
+      </c>
+      <c r="E109">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B110">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C110">
+        <v>24.6</v>
+      </c>
+      <c r="D110">
+        <v>81</v>
+      </c>
+      <c r="E110">
+        <v>12.6</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45767</v>
+      </c>
+      <c r="B111">
+        <v>33.6</v>
+      </c>
+      <c r="C111">
+        <v>24.1</v>
+      </c>
+      <c r="D111">
+        <v>81</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
+      </c>
+      <c r="F111">
+        <v>35.6</v>
+      </c>
+      <c r="G111">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B112">
+        <v>34.5</v>
+      </c>
+      <c r="C112">
+        <v>23</v>
+      </c>
+      <c r="D112">
+        <v>79</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B113">
+        <v>34.6</v>
+      </c>
+      <c r="C113">
+        <v>23.8</v>
+      </c>
+      <c r="D113">
+        <v>78</v>
+      </c>
+      <c r="E113">
+        <v>10.9</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B114">
+        <v>35.1</v>
+      </c>
+      <c r="C114">
+        <v>24.9</v>
+      </c>
+      <c r="D114">
+        <v>76</v>
+      </c>
+      <c r="E114">
+        <v>11.2</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B115">
+        <v>35.1</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>77</v>
+      </c>
+      <c r="E115">
+        <v>10.9</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B116">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C116">
+        <v>24.7</v>
+      </c>
+      <c r="D116">
+        <v>82</v>
+      </c>
+      <c r="E116">
+        <v>11.2</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B117">
+        <v>32.5</v>
+      </c>
+      <c r="C117">
+        <v>23.6</v>
+      </c>
+      <c r="D117">
+        <v>82</v>
+      </c>
+      <c r="E117">
+        <v>13.1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B118">
+        <v>32.4</v>
+      </c>
+      <c r="C118">
+        <v>23.6</v>
+      </c>
+      <c r="D118">
+        <v>80</v>
+      </c>
+      <c r="E118">
+        <v>12.6</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B119">
+        <v>33.5</v>
+      </c>
+      <c r="C119">
+        <v>22.7</v>
+      </c>
+      <c r="D119">
+        <v>80</v>
+      </c>
+      <c r="E119">
+        <v>14.8</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B120">
+        <v>31.6</v>
+      </c>
+      <c r="C120">
+        <v>21.4</v>
+      </c>
+      <c r="D120">
+        <v>77</v>
+      </c>
+      <c r="E120">
+        <v>14.8</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B121">
+        <v>33.1</v>
+      </c>
+      <c r="C121">
+        <v>22.8</v>
+      </c>
+      <c r="D121">
+        <v>78</v>
+      </c>
+      <c r="E121">
+        <v>15.5</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B122">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C122">
+        <v>22.4</v>
+      </c>
+      <c r="D122">
+        <v>80</v>
+      </c>
+      <c r="E122">
+        <v>14.8</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B123">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C123">
+        <v>23.2</v>
+      </c>
+      <c r="D123">
+        <v>78</v>
+      </c>
+      <c r="E123">
+        <v>15.6</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45780</v>
+      </c>
+      <c r="B124">
+        <v>33.9</v>
+      </c>
+      <c r="C124">
+        <v>23.4</v>
+      </c>
+      <c r="D124">
+        <v>80</v>
+      </c>
+      <c r="E124">
+        <v>14.5</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B125">
+        <v>33.9</v>
+      </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
+      <c r="D125">
+        <v>78</v>
+      </c>
+      <c r="E125">
+        <v>12.1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B126">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C126">
+        <v>25</v>
+      </c>
+      <c r="D126">
+        <v>75</v>
+      </c>
+      <c r="E126">
+        <v>12.4</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B127">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C127">
+        <v>25</v>
+      </c>
+      <c r="D127">
+        <v>78</v>
+      </c>
+      <c r="E127">
+        <v>9.1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B128">
+        <v>35.4</v>
+      </c>
+      <c r="C128">
+        <v>25.6</v>
+      </c>
+      <c r="D128">
+        <v>80</v>
+      </c>
+      <c r="E128">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B129">
+        <v>36.1</v>
+      </c>
+      <c r="C129">
+        <v>25.8</v>
+      </c>
+      <c r="D129">
+        <v>79</v>
+      </c>
+      <c r="E129">
+        <v>12.8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B130">
+        <v>36.9</v>
+      </c>
+      <c r="C130">
+        <v>26.3</v>
+      </c>
+      <c r="D130">
+        <v>76</v>
+      </c>
+      <c r="E130">
+        <v>11.3</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B131">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C131">
+        <v>25.1</v>
+      </c>
+      <c r="D131">
+        <v>82</v>
+      </c>
+      <c r="E131">
+        <v>12.3</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B132">
+        <v>31.2</v>
+      </c>
+      <c r="C132">
+        <v>25</v>
+      </c>
+      <c r="D132">
+        <v>77</v>
+      </c>
+      <c r="E132">
+        <v>12.3</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B133">
+        <v>29.5</v>
+      </c>
+      <c r="C133">
+        <v>22.3</v>
+      </c>
+      <c r="D133">
+        <v>78</v>
+      </c>
+      <c r="E133">
+        <v>14.2</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B134">
+        <v>31.6</v>
+      </c>
+      <c r="C134">
+        <v>23.4</v>
+      </c>
+      <c r="D134">
+        <v>83</v>
+      </c>
+      <c r="E134">
+        <v>12.6</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B135">
+        <v>32.5</v>
+      </c>
+      <c r="C135">
+        <v>25.2</v>
+      </c>
+      <c r="D135">
+        <v>83</v>
+      </c>
+      <c r="E135">
+        <v>12.5</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B136">
+        <v>32</v>
+      </c>
+      <c r="C136">
+        <v>24.6</v>
+      </c>
+      <c r="D136">
+        <v>84</v>
+      </c>
+      <c r="E136">
+        <v>10.5</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>
@@ -1398,12 +6735,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6D82E7-E582-478E-84B6-804CBBE94C2B}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -1437,439 +6777,3107 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45774</v>
+        <v>45658</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>30.1</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>22.7</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="F2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45735</v>
+        <v>45659</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>31.2</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>23.4</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45725</v>
+        <v>45660</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>31.3</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>22.3</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>15.4</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45757</v>
+        <v>45661</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>21.9</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45714</v>
+        <v>45662</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>32.6</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20.7</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="F6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45665</v>
+        <v>45663</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>31.1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>21.1</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45777</v>
+        <v>45664</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>32.1</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>21.5</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45668</v>
+        <v>45665</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>31.9</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>21.3</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>11.8</v>
       </c>
       <c r="F9">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45692</v>
+        <v>45666</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>31.9</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>21.8</v>
       </c>
       <c r="D10">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45658</v>
+        <v>45667</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>32.1</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>21.4</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45751</v>
+        <v>45668</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>31.4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>15.6</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45777</v>
+        <v>45669</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>30.3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>13.4</v>
       </c>
       <c r="F13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45693</v>
+        <v>45670</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>18.7</v>
       </c>
       <c r="D14">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="F14">
-        <v>39</v>
+        <v>1.7</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45758</v>
+        <v>45671</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>21.1</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>47</v>
+        <v>1.5</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45755</v>
+        <v>45672</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>31.8</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>23.6</v>
       </c>
       <c r="D16">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>74</v>
+        <v>0.8</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45760</v>
+        <v>45673</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>33.1</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>20.7</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>0.3</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45717</v>
+        <v>45674</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>31.8</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>20.9</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>10.4</v>
       </c>
       <c r="F18">
-        <v>56</v>
+        <v>0.3</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45736</v>
+        <v>45675</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>30.7</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>21.1</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="F19">
-        <v>29</v>
+        <v>0.3</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45675</v>
+        <v>45676</v>
       </c>
       <c r="B20">
+        <v>31.6</v>
+      </c>
+      <c r="C20">
+        <v>21.8</v>
+      </c>
+      <c r="D20">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>11.4</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B21">
+        <v>30.5</v>
+      </c>
+      <c r="C21">
+        <v>20.2</v>
+      </c>
+      <c r="D21">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>10.4</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B22">
+        <v>30.3</v>
+      </c>
+      <c r="C22">
+        <v>20.5</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>10.5</v>
+      </c>
+      <c r="F22">
+        <v>1.7</v>
+      </c>
+      <c r="G22">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B23">
+        <v>30.6</v>
+      </c>
+      <c r="C23">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D23">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>2.7</v>
+      </c>
+      <c r="G23">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B24">
+        <v>30.8</v>
+      </c>
+      <c r="C24">
+        <v>22.7</v>
+      </c>
+      <c r="D24">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B25">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C25">
+        <v>22.7</v>
+      </c>
+      <c r="D25">
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B26">
+        <v>31.7</v>
+      </c>
+      <c r="C26">
+        <v>23.1</v>
+      </c>
+      <c r="D26">
+        <v>78</v>
+      </c>
+      <c r="E26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B27">
+        <v>30.8</v>
+      </c>
+      <c r="C27">
+        <v>20.7</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <v>11.1</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D28">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>10.1</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B29">
+        <v>30.1</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>8.1</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B30">
+        <v>29.4</v>
+      </c>
+      <c r="C30">
+        <v>18.2</v>
+      </c>
+      <c r="D30">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>8.6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B31">
+        <v>28.5</v>
+      </c>
+      <c r="C31">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D31">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>6.5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B32">
+        <v>30.4</v>
+      </c>
+      <c r="C32">
+        <v>19.3</v>
+      </c>
+      <c r="D32">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>6.9</v>
+      </c>
+      <c r="F32">
+        <v>35.6</v>
+      </c>
+      <c r="G32">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B33">
+        <v>31.8</v>
+      </c>
+      <c r="C33">
+        <v>21.3</v>
+      </c>
+      <c r="D33">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>13.8</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B34">
+        <v>32.6</v>
+      </c>
+      <c r="C34">
+        <v>22.7</v>
+      </c>
+      <c r="D34">
+        <v>74</v>
+      </c>
+      <c r="E34">
+        <v>14.6</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B35">
+        <v>32.5</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>13.3</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B36">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C36">
+        <v>21.6</v>
+      </c>
+      <c r="D36">
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B37">
+        <v>31.4</v>
+      </c>
+      <c r="C37">
+        <v>20.3</v>
+      </c>
+      <c r="D37">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>13.4</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B38">
+        <v>32.1</v>
+      </c>
+      <c r="C38">
+        <v>20.8</v>
+      </c>
+      <c r="D38">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B39">
+        <v>31.7</v>
+      </c>
+      <c r="C39">
+        <v>21.2</v>
+      </c>
+      <c r="D39">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>11.4</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B40">
+        <v>32.1</v>
+      </c>
+      <c r="C40">
+        <v>20.3</v>
+      </c>
+      <c r="D40">
+        <v>62</v>
+      </c>
+      <c r="E40">
+        <v>10.7</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B41">
+        <v>30.7</v>
+      </c>
+      <c r="C41">
+        <v>20.2</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>12.8</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B42">
+        <v>29.2</v>
+      </c>
+      <c r="C42">
+        <v>21.2</v>
+      </c>
+      <c r="D42">
+        <v>73</v>
+      </c>
+      <c r="E42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>22.9</v>
+      </c>
+      <c r="D43">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>8.6</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B44">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C44">
+        <v>24.3</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+      <c r="E44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B45">
+        <v>30.3</v>
+      </c>
+      <c r="C45">
+        <v>24.2</v>
+      </c>
+      <c r="D45">
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>24.3</v>
+      </c>
+      <c r="D46">
+        <v>83</v>
+      </c>
+      <c r="E46">
+        <v>11.8</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B47">
+        <v>32.5</v>
+      </c>
+      <c r="C47">
+        <v>24.2</v>
+      </c>
+      <c r="D47">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>16.3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B48">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C48">
+        <v>23.6</v>
+      </c>
+      <c r="D48">
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <v>12.7</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B49">
+        <v>33.1</v>
+      </c>
+      <c r="C49">
+        <v>23.9</v>
+      </c>
+      <c r="D49">
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>13.4</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B50">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C50">
+        <v>23.7</v>
+      </c>
+      <c r="D50">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>9.1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B51">
+        <v>31.3</v>
+      </c>
+      <c r="C51">
+        <v>23.8</v>
+      </c>
+      <c r="D51">
+        <v>82</v>
+      </c>
+      <c r="E51">
+        <v>13.3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B52">
+        <v>32.5</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>10.3</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B53">
+        <v>31.5</v>
+      </c>
+      <c r="C53">
+        <v>24.4</v>
+      </c>
+      <c r="D53">
+        <v>82</v>
+      </c>
+      <c r="E53">
+        <v>10.4</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45710</v>
+      </c>
+      <c r="B54">
+        <v>31.1</v>
+      </c>
+      <c r="C54">
+        <v>24.7</v>
+      </c>
+      <c r="D54">
+        <v>84</v>
+      </c>
+      <c r="E54">
+        <v>10.3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>24.6</v>
+      </c>
+      <c r="D55">
+        <v>87</v>
+      </c>
+      <c r="E55">
+        <v>10.3</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B56">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C56">
+        <v>23.8</v>
+      </c>
+      <c r="D56">
+        <v>81</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B57">
+        <v>31.8</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>74</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B58">
+        <v>31.5</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>6.4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B59">
+        <v>33.6</v>
+      </c>
+      <c r="C59">
+        <v>24.3</v>
+      </c>
+      <c r="D59">
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B60">
+        <v>33.4</v>
+      </c>
+      <c r="C60">
+        <v>23.8</v>
+      </c>
+      <c r="D60">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>13.1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B61">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C61">
+        <v>24.4</v>
+      </c>
+      <c r="D61">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B62">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C62">
+        <v>23.7</v>
+      </c>
+      <c r="D62">
+        <v>73</v>
+      </c>
+      <c r="E62">
+        <v>14.5</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B63">
+        <v>34.1</v>
+      </c>
+      <c r="C63">
+        <v>24.3</v>
+      </c>
+      <c r="D63">
+        <v>74</v>
+      </c>
+      <c r="E63">
+        <v>13.7</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B64">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>76</v>
+      </c>
+      <c r="E64">
+        <v>10.7</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B65">
+        <v>33.6</v>
+      </c>
+      <c r="C65">
+        <v>25.5</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+      <c r="E65">
+        <v>13.2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B66">
+        <v>34.1</v>
+      </c>
+      <c r="C66">
+        <v>24.3</v>
+      </c>
+      <c r="D66">
+        <v>73</v>
+      </c>
+      <c r="E66">
+        <v>14.1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B67">
+        <v>34</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>76</v>
+      </c>
+      <c r="E67">
+        <v>13.8</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B68">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C68">
+        <v>24.2</v>
+      </c>
+      <c r="D68">
+        <v>78</v>
+      </c>
+      <c r="E68">
+        <v>11.5</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B69">
+        <v>32</v>
+      </c>
+      <c r="C69">
+        <v>24.6</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>7.9</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B70">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C70">
+        <v>25.2</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B71">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C71">
+        <v>25.3</v>
+      </c>
+      <c r="D71">
+        <v>74</v>
+      </c>
+      <c r="E71">
+        <v>8.9</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B72">
+        <v>35.4</v>
+      </c>
+      <c r="C72">
+        <v>25.2</v>
+      </c>
+      <c r="D72">
+        <v>69</v>
+      </c>
+      <c r="E72">
+        <v>17.2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B73">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C73">
+        <v>24.8</v>
+      </c>
+      <c r="D73">
+        <v>70</v>
+      </c>
+      <c r="E73">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B74">
+        <v>34.5</v>
+      </c>
+      <c r="C74">
+        <v>25.2</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>16.5</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
+      </c>
+      <c r="G74">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B75">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C75">
+        <v>25.4</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>16.8</v>
+      </c>
+      <c r="F75">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B76">
+        <v>33.9</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>16.7</v>
+      </c>
+      <c r="F76">
+        <v>2.6</v>
+      </c>
+      <c r="G76">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B77">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>79</v>
+      </c>
+      <c r="E77">
+        <v>9.9</v>
+      </c>
+      <c r="F77">
+        <v>0.6</v>
+      </c>
+      <c r="G77">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B78">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C78">
+        <v>23.8</v>
+      </c>
+      <c r="D78">
+        <v>68</v>
+      </c>
+      <c r="E78">
+        <v>11.5</v>
+      </c>
+      <c r="F78">
+        <v>0.3</v>
+      </c>
+      <c r="G78">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B79">
+        <v>34</v>
+      </c>
+      <c r="C79">
+        <v>22.8</v>
+      </c>
+      <c r="D79">
+        <v>57</v>
+      </c>
+      <c r="E79">
+        <v>10.8</v>
+      </c>
+      <c r="F79">
+        <v>6.1</v>
+      </c>
+      <c r="G79">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B80">
+        <v>32</v>
+      </c>
+      <c r="C80">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>63</v>
+      </c>
+      <c r="E80">
+        <v>10.5</v>
+      </c>
+      <c r="F80">
+        <v>0.9</v>
+      </c>
+      <c r="G80">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B81">
+        <v>33.6</v>
+      </c>
+      <c r="C81">
+        <v>23.5</v>
+      </c>
+      <c r="D81">
+        <v>67</v>
+      </c>
+      <c r="E81">
+        <v>8.9</v>
+      </c>
+      <c r="F81">
+        <v>3.1</v>
+      </c>
+      <c r="G81">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B82">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C82">
+        <v>24</v>
+      </c>
+      <c r="D82">
+        <v>66</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B83">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C83">
+        <v>23.8</v>
+      </c>
+      <c r="D83">
+        <v>68</v>
+      </c>
+      <c r="E83">
+        <v>14</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B84">
+        <v>34.1</v>
+      </c>
+      <c r="C84">
+        <v>24.5</v>
+      </c>
+      <c r="D84">
+        <v>68</v>
+      </c>
+      <c r="E84">
+        <v>19.3</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B85">
+        <v>31.4</v>
+      </c>
+      <c r="C85">
+        <v>23.1</v>
+      </c>
+      <c r="D85">
+        <v>72</v>
+      </c>
+      <c r="E85">
+        <v>12.8</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B86">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C86">
+        <v>23.9</v>
+      </c>
+      <c r="D86">
+        <v>75</v>
+      </c>
+      <c r="E86">
+        <v>12.1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B87">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C87">
+        <v>23.9</v>
+      </c>
+      <c r="D87">
+        <v>74</v>
+      </c>
+      <c r="E87">
+        <v>10.6</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B88">
+        <v>33.9</v>
+      </c>
+      <c r="C88">
+        <v>24.8</v>
+      </c>
+      <c r="D88">
+        <v>72</v>
+      </c>
+      <c r="E88">
+        <v>11.4</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B89">
+        <v>34.5</v>
+      </c>
+      <c r="C89">
+        <v>25.8</v>
+      </c>
+      <c r="D89">
+        <v>72</v>
+      </c>
+      <c r="E89">
+        <v>15.5</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B90">
+        <v>34.9</v>
+      </c>
+      <c r="C90">
+        <v>25.2</v>
+      </c>
+      <c r="D90">
+        <v>73</v>
+      </c>
+      <c r="E90">
+        <v>11.9</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B91">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <v>25.6</v>
+      </c>
+      <c r="D91">
+        <v>78</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B92">
+        <v>32</v>
+      </c>
+      <c r="C92">
+        <v>24.9</v>
+      </c>
+      <c r="D92">
+        <v>85</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B93">
+        <v>31.8</v>
+      </c>
+      <c r="C93">
+        <v>24.8</v>
+      </c>
+      <c r="D93">
+        <v>82</v>
+      </c>
+      <c r="E93">
+        <v>8.9</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B94">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C94">
+        <v>24.7</v>
+      </c>
+      <c r="D94">
+        <v>72</v>
+      </c>
+      <c r="E94">
+        <v>16.5</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B95">
+        <v>34.6</v>
+      </c>
+      <c r="C95">
+        <v>24.4</v>
+      </c>
+      <c r="D95">
+        <v>69</v>
+      </c>
+      <c r="E95">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B96">
+        <v>34.6</v>
+      </c>
+      <c r="C96">
+        <v>25.2</v>
+      </c>
+      <c r="D96">
+        <v>72</v>
+      </c>
+      <c r="E96">
+        <v>15.8</v>
+      </c>
+      <c r="F96">
+        <v>0.7</v>
+      </c>
+      <c r="G96">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45753</v>
+      </c>
+      <c r="B97">
+        <v>33.6</v>
+      </c>
+      <c r="C97">
+        <v>25.6</v>
+      </c>
+      <c r="D97">
+        <v>71</v>
+      </c>
+      <c r="E97">
+        <v>14.9</v>
+      </c>
+      <c r="F97">
+        <v>1.6</v>
+      </c>
+      <c r="G97">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B98">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C98">
+        <v>26.1</v>
+      </c>
+      <c r="D98">
+        <v>68</v>
+      </c>
+      <c r="E98">
+        <v>16.2</v>
+      </c>
+      <c r="F98">
+        <v>6.1</v>
+      </c>
+      <c r="G98">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B99">
+        <v>33.4</v>
+      </c>
+      <c r="C99">
+        <v>25.3</v>
+      </c>
+      <c r="D99">
+        <v>72</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>0.7</v>
+      </c>
+      <c r="G99">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B100">
+        <v>34.4</v>
+      </c>
+      <c r="C100">
+        <v>25.6</v>
+      </c>
+      <c r="D100">
+        <v>72</v>
+      </c>
+      <c r="E100">
+        <v>12.8</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B101">
+        <v>33.5</v>
+      </c>
+      <c r="C101">
+        <v>26.1</v>
+      </c>
+      <c r="D101">
+        <v>77</v>
+      </c>
+      <c r="E101">
+        <v>7.7</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B102">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C102">
+        <v>25.5</v>
+      </c>
+      <c r="D102">
+        <v>74</v>
+      </c>
+      <c r="E102">
+        <v>13.9</v>
+      </c>
+      <c r="F102">
+        <v>0.1</v>
+      </c>
+      <c r="G102">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B103">
+        <v>34.9</v>
+      </c>
+      <c r="C103">
+        <v>26.6</v>
+      </c>
+      <c r="D103">
+        <v>74</v>
+      </c>
+      <c r="E103">
+        <v>11.4</v>
+      </c>
+      <c r="F103">
+        <v>0.8</v>
+      </c>
+      <c r="G103">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45760</v>
+      </c>
+      <c r="B104">
+        <v>34</v>
+      </c>
+      <c r="C104">
+        <v>25.8</v>
+      </c>
+      <c r="D104">
+        <v>78</v>
+      </c>
+      <c r="E104">
+        <v>12.8</v>
+      </c>
+      <c r="F104">
+        <v>2.6</v>
+      </c>
+      <c r="G104">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B105">
+        <v>34.9</v>
+      </c>
+      <c r="C105">
+        <v>25.7</v>
+      </c>
+      <c r="D105">
+        <v>76</v>
+      </c>
+      <c r="E105">
+        <v>11.1</v>
+      </c>
+      <c r="F105">
+        <v>0.6</v>
+      </c>
+      <c r="G105">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B106">
+        <v>33.5</v>
+      </c>
+      <c r="C106">
+        <v>25.6</v>
+      </c>
+      <c r="D106">
+        <v>78</v>
+      </c>
+      <c r="E106">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F106">
+        <v>0.3</v>
+      </c>
+      <c r="G106">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B107">
+        <v>34</v>
+      </c>
+      <c r="C107">
+        <v>26</v>
+      </c>
+      <c r="D107">
+        <v>78</v>
+      </c>
+      <c r="E107">
+        <v>11.4</v>
+      </c>
+      <c r="F107">
+        <v>6.1</v>
+      </c>
+      <c r="G107">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B108">
+        <v>33.6</v>
+      </c>
+      <c r="C108">
+        <v>25.8</v>
+      </c>
+      <c r="D108">
+        <v>79</v>
+      </c>
+      <c r="E108">
+        <v>9.5</v>
+      </c>
+      <c r="F108">
+        <v>0.9</v>
+      </c>
+      <c r="G108">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B109">
+        <v>34</v>
+      </c>
+      <c r="C109">
+        <v>26.5</v>
+      </c>
+      <c r="D109">
+        <v>75</v>
+      </c>
+      <c r="E109">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F109">
+        <v>3.1</v>
+      </c>
+      <c r="G109">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B110">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C110">
+        <v>25.8</v>
+      </c>
+      <c r="D110">
+        <v>75</v>
+      </c>
+      <c r="E110">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G110">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45767</v>
+      </c>
+      <c r="B111">
+        <v>35.4</v>
+      </c>
+      <c r="C111">
+        <v>25.6</v>
+      </c>
+      <c r="D111">
+        <v>72</v>
+      </c>
+      <c r="E111">
+        <v>12.5</v>
+      </c>
+      <c r="F111">
+        <v>0.4</v>
+      </c>
+      <c r="G111">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B112">
+        <v>34.5</v>
+      </c>
+      <c r="C112">
+        <v>26.3</v>
+      </c>
+      <c r="D112">
+        <v>75</v>
+      </c>
+      <c r="E112">
+        <v>13.7</v>
+      </c>
+      <c r="F112">
+        <v>0.6</v>
+      </c>
+      <c r="G112">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B113">
+        <v>33.4</v>
+      </c>
+      <c r="C113">
+        <v>25.5</v>
+      </c>
+      <c r="D113">
+        <v>79</v>
+      </c>
+      <c r="E113">
+        <v>13.9</v>
+      </c>
+      <c r="F113">
+        <v>1.6</v>
+      </c>
+      <c r="G113">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B114">
+        <v>34.4</v>
+      </c>
+      <c r="C114">
+        <v>25.3</v>
+      </c>
+      <c r="D114">
+        <v>78</v>
+      </c>
+      <c r="E114">
+        <v>12.9</v>
+      </c>
+      <c r="F114">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G114">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B115">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C115">
+        <v>25.5</v>
+      </c>
+      <c r="D115">
+        <v>77</v>
+      </c>
+      <c r="E115">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>1.5</v>
+      </c>
+      <c r="G115">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B116">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C116">
+        <v>26.2</v>
+      </c>
+      <c r="D116">
+        <v>79</v>
+      </c>
+      <c r="E116">
+        <v>11.2</v>
+      </c>
+      <c r="F116">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G116">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B117">
+        <v>33.4</v>
+      </c>
+      <c r="C117">
+        <v>25.7</v>
+      </c>
+      <c r="D117">
+        <v>80</v>
+      </c>
+      <c r="E117">
+        <v>7.4</v>
+      </c>
+      <c r="F117">
+        <v>1.8</v>
+      </c>
+      <c r="G117">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B118">
+        <v>34.9</v>
+      </c>
+      <c r="C118">
+        <v>26.5</v>
+      </c>
+      <c r="D118">
+        <v>72</v>
+      </c>
+      <c r="E118">
+        <v>15.5</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B119">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C119">
+        <v>26.5</v>
+      </c>
+      <c r="D119">
+        <v>70</v>
+      </c>
+      <c r="E119">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F119">
+        <v>0.4</v>
+      </c>
+      <c r="G119">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B120">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C120">
+        <v>26.3</v>
+      </c>
+      <c r="D120">
+        <v>68</v>
+      </c>
+      <c r="E120">
+        <v>14.3</v>
+      </c>
+      <c r="F120">
+        <v>0.3</v>
+      </c>
+      <c r="G120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B121">
+        <v>35.5</v>
+      </c>
+      <c r="C121">
+        <v>27.2</v>
+      </c>
+      <c r="D121">
+        <v>66</v>
+      </c>
+      <c r="E121">
+        <v>11.6</v>
+      </c>
+      <c r="F121">
+        <v>0.8</v>
+      </c>
+      <c r="G121">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B122">
+        <v>36</v>
+      </c>
+      <c r="C122">
+        <v>26.6</v>
+      </c>
+      <c r="D122">
+        <v>70</v>
+      </c>
+      <c r="E122">
+        <v>14.2</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B123">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C123">
+        <v>26.3</v>
+      </c>
+      <c r="D123">
+        <v>75</v>
+      </c>
+      <c r="E123">
+        <v>15.5</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45780</v>
+      </c>
+      <c r="B124">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C124">
+        <v>25.8</v>
+      </c>
+      <c r="D124">
+        <v>81</v>
+      </c>
+      <c r="E124">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B125">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C125">
+        <v>25.8</v>
+      </c>
+      <c r="D125">
+        <v>78</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>0.4</v>
+      </c>
+      <c r="G125">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B126">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C126">
+        <v>25.7</v>
+      </c>
+      <c r="D126">
+        <v>73</v>
+      </c>
+      <c r="E126">
         <v>16</v>
       </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
+      <c r="F126">
+        <v>0.7</v>
+      </c>
+      <c r="G126">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B127">
+        <v>33.9</v>
+      </c>
+      <c r="C127">
+        <v>26</v>
+      </c>
+      <c r="D127">
+        <v>77</v>
+      </c>
+      <c r="E127">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F127">
+        <v>1.4</v>
+      </c>
+      <c r="G127">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B128">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C128">
+        <v>26.1</v>
+      </c>
+      <c r="D128">
         <v>72</v>
       </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>68</v>
-      </c>
-      <c r="G20">
+      <c r="E128">
+        <v>12.1</v>
+      </c>
+      <c r="F128">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G128">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B129">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C129">
+        <v>26.4</v>
+      </c>
+      <c r="D129">
+        <v>70</v>
+      </c>
+      <c r="E129">
+        <v>12.4</v>
+      </c>
+      <c r="F129">
+        <v>11.3</v>
+      </c>
+      <c r="G129">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B130">
+        <v>35.4</v>
+      </c>
+      <c r="C130">
+        <v>26.8</v>
+      </c>
+      <c r="D130">
+        <v>76</v>
+      </c>
+      <c r="E130">
+        <v>10.7</v>
+      </c>
+      <c r="F130">
+        <v>0.1</v>
+      </c>
+      <c r="G130">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B131">
+        <v>31.9</v>
+      </c>
+      <c r="C131">
+        <v>25.8</v>
+      </c>
+      <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
         <v>6</v>
+      </c>
+      <c r="F131">
+        <v>0.3</v>
+      </c>
+      <c r="G131">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B132">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C132">
+        <v>26.3</v>
+      </c>
+      <c r="D132">
+        <v>78</v>
+      </c>
+      <c r="E132">
+        <v>4.2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B133">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C133">
+        <v>25.6</v>
+      </c>
+      <c r="D133">
+        <v>82</v>
+      </c>
+      <c r="E133">
+        <v>9.4</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B134">
+        <v>33.5</v>
+      </c>
+      <c r="C134">
+        <v>26.3</v>
+      </c>
+      <c r="D134">
+        <v>78</v>
+      </c>
+      <c r="E134">
+        <v>10.8</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B135">
+        <v>34.5</v>
+      </c>
+      <c r="C135">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <v>79</v>
+      </c>
+      <c r="E135">
+        <v>12.3</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B136">
+        <v>34.5</v>
+      </c>
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>79</v>
+      </c>
+      <c r="E136">
+        <v>12.1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
